--- a/uploads/product.xlsx
+++ b/uploads/product.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Categories">Sheet2!$B$1:$B$16</definedName>
+    <definedName name="YesNo">Sheet2!$C$1:$C$2</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Product Name</t>
   </si>
@@ -60,9 +65,6 @@
     <t>test notes</t>
   </si>
   <si>
-    <t>Lt</t>
-  </si>
-  <si>
     <t>Regulatory</t>
   </si>
   <si>
@@ -76,13 +78,64 @@
   </si>
   <si>
     <t>lalit excel test 12</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Herbals</t>
+  </si>
+  <si>
+    <t>PCD Companies</t>
+  </si>
+  <si>
+    <t>Active Pharmaceutical Ingredients (API)</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Fine Chemicals</t>
+  </si>
+  <si>
+    <t>Intermediates Excipients</t>
+  </si>
+  <si>
+    <t>Pellets</t>
+  </si>
+  <si>
+    <t>Plant Machinery</t>
+  </si>
+  <si>
+    <t>Lab Equipment</t>
+  </si>
+  <si>
+    <t>Wholesale Dealers</t>
+  </si>
+  <si>
+    <t>Nutraceuticals</t>
+  </si>
+  <si>
+    <t>Veterinary</t>
+  </si>
+  <si>
+    <t>Finished Formulation</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,122 +143,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -215,16 +177,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,176 +533,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="2:10" s="8" customFormat="1">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+      <formula1>Sheet2!$B$1:$B$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J1048576">
+      <formula1>Sheet2!$C$1:$C$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="D932" sheet="1" objects="1" scenarios="1"/>
+  <sortState ref="B1:B16">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>